--- a/2Tasks/2TasksResult.xlsx
+++ b/2Tasks/2TasksResult.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonpuk/Documents/NZStudy/COMPSCI 760/Project/Result/2Tasks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGPC\Documents\GitHub\CS760 GroupProject\760-Replay-Strategies\2Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD4135-D092-E14D-BEFB-93DCFA4E600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082458D5-9E7C-499B-8817-1A8E30DE0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A376178C-32C3-834A-A64A-286296E5E62B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A376178C-32C3-834A-A64A-286296E5E62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -165,11 +163,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -192,7 +190,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2299,21 +2297,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DE9676-BF65-5B41-9BCE-F219399D486A}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="12" width="10.83203125" style="5"/>
-    <col min="13" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="32" width="14.83203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="12" width="10.875" style="5"/>
+    <col min="13" max="26" width="10.875" style="1"/>
+    <col min="27" max="32" width="14.875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4">
@@ -2362,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>3.1894274023510159E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>0.95693041269364176</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>0.6727473029067168</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2613,11 +2611,11 @@
         <v>10</v>
       </c>
       <c r="AF5" s="7">
-        <f>_xlfn.T.TEST($C$82:$L$82, $C101:$L101,2,1)</f>
-        <v>0.52213934315999122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+        <f>_xlfn.T.TEST($C$82:$L$82, $C102:$L102,2,1)</f>
+        <v>0.51694105828400949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>0.49309000372886669</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>0.49377000033855439</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>0.49396999776363371</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2847,7 @@
         <v>0.4941200017929076</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>0.49467999637126925</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>0.49468999207019798</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>0.3560099981725216</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3015,7 @@
         <v>0.41325999721884754</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3057,7 @@
         <v>0.43214000388979923</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>0.43697999417781841</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3141,7 @@
         <v>0.43955000340938577</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>0.44157000184059159</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3225,7 @@
         <v>0.44359999895095825</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>0.44310000836849223</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>0.44456000030040749</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>0.44645999372005463</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3395,7 +3393,7 @@
         <v>0.35656000375747687</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>0.38378000110387822</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3479,7 +3477,7 @@
         <v>0.42603000104427335</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3519,7 @@
         <v>0.45672999620437638</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3563,7 +3561,7 @@
         <v>0.47847999632358562</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>0.48286000192165374</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3645,7 @@
         <v>0.49402999877929704</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>0.49493999779224385</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3731,7 +3729,7 @@
         <v>0.49600999355316161</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>0.49582000076770771</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>0.44168999195098879</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3856,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>0.6792799927294253</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>0.7196499928832053</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>0.74402000159025194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>0.75110000222921369</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -4068,7 +4066,7 @@
         <v>0.75695999711751938</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>0.75915000289678569</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -4152,7 +4150,7 @@
         <v>0.7622000083327295</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>0.76460000723600374</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>0.38211999833583826</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>0.40396000146865835</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>0.42077000290155392</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>0.43666000217199324</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4404,7 +4402,7 @@
         <v>0.43880999833345424</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>0.44596000462770435</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>0.45572999566793448</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>0.45654000192880612</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4570,7 @@
         <v>0.45665999203920349</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>0.45674000531435011</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>0.44519999921321868</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>0.54208000004291523</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>0.60122000426054001</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>0.62359999865293514</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4824,7 +4822,7 @@
         <v>0.64006000608205793</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>0.65085999220609669</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>0.6589300081133842</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>0.66466999500989932</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4992,7 +4990,7 @@
         <v>0.66651000231504431</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +5032,7 @@
         <v>0.67162999361753484</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>0.43075000047683709</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>0.48571000099182127</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -5160,7 +5158,7 @@
         <v>0.49074999988079082</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -5202,7 +5200,7 @@
         <v>0.49307000637054454</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>0.49390000104904175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>0.49473000466823569</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -5328,7 +5326,7 @@
         <v>0.49470999240875252</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -5370,7 +5368,7 @@
         <v>0.4945900082588196</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>0.49569000303745259</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -5454,7 +5452,7 @@
         <v>0.49547000229358673</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>0.48659000694751742</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5538,7 +5536,7 @@
         <v>0.64352000653743724</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5580,7 +5578,7 @@
         <v>0.75310000777244557</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -5622,7 +5620,7 @@
         <v>0.78531999588012691</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -5664,7 +5662,7 @@
         <v>0.80097000002861019</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -5706,7 +5704,7 @@
         <v>0.81342999935150162</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>0.81407998800277726</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>0.82522000074386592</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -5832,7 +5830,7 @@
         <v>0.83773000240325923</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -5874,7 +5872,7 @@
         <v>0.85287001132965101</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -5916,7 +5914,7 @@
         <v>0.39490000158548366</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>0.4627700001001358</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -6000,7 +5998,7 @@
         <v>0.48850000500679036</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6040,7 @@
         <v>0.49072999954223639</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>0.49168999493122112</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -6126,7 +6124,7 @@
         <v>0.49324999749660481</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>0.49381000399589536</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>0.49475000500679001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>0.49474999904632561</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -6294,7 +6292,7 @@
         <v>0.49510999619960805</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -6336,7 +6334,7 @@
         <v>0.49784000590443611</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -6378,7 +6376,7 @@
         <v>0.63815999850630756</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -6420,7 +6418,7 @@
         <v>0.69295999929308894</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>0.72928999587893517</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>0.74007000252604482</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -6546,7 +6544,7 @@
         <v>0.74525999352335948</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -6588,7 +6586,7 @@
         <v>0.75159999057650562</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -6630,7 +6628,7 @@
         <v>0.75372000262141226</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -6672,7 +6670,7 @@
         <v>0.75631000325083753</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
